--- a/Output/test4_page0.xlsx
+++ b/Output/test4_page0.xlsx
@@ -486,17 +486,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.890569</t>
+          <t>0.890589</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.560000</t>
+          <t>0.5600o0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:02</t>
+          <t>00-02</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>0.178164</t>
@@ -701,11 +705,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>0.074047</t>
